--- a/P20WIN_Data_Dictionary_Template.xlsx
+++ b/P20WIN_Data_Dictionary_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\opm-fs102\UserRedirections\WonderlyC\Documents\Data-Dictionaries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{794F31C4-F849-47C9-9403-6CE54C5169C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D49679EB-B081-4D8B-9A87-3B9147C0C8AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="332" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Data Element Definition</t>
   </si>
@@ -56,7 +56,28 @@
     <t>Years Available</t>
   </si>
   <si>
-    <t>Source (examples: SLDS, Community Colleges…)</t>
+    <t>State Department of Education (SDE)</t>
+  </si>
+  <si>
+    <t>State Longitudinal Data System (SLDS)</t>
+  </si>
+  <si>
+    <t>Student</t>
+  </si>
+  <si>
+    <t>MothersMaidenName</t>
+  </si>
+  <si>
+    <t>Maiden name of student’s mother.  Used as a tie-breaker data element when differentiating students with similar information.</t>
+  </si>
+  <si>
+    <t>varchar(35)</t>
+  </si>
+  <si>
+    <t>2010 to 2021</t>
+  </si>
+  <si>
+    <t>Program/Source</t>
   </si>
 </sst>
 </file>
@@ -134,7 +155,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -153,6 +174,14 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -509,16 +538,16 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="50.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.21875" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="50.44140625" style="4" customWidth="1"/>
     <col min="3" max="3" width="24.109375" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="39.109375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="29" style="6" customWidth="1"/>
+    <col min="5" max="5" width="46" style="6" customWidth="1"/>
     <col min="6" max="6" width="33.44140625" style="4" customWidth="1"/>
     <col min="7" max="7" width="21.21875" style="4" customWidth="1"/>
     <col min="8" max="34" width="3.33203125" style="4" customWidth="1"/>
@@ -531,7 +560,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -579,6 +608,29 @@
       <c r="AJ1" s="3"/>
       <c r="AK1" s="3"/>
     </row>
+    <row r="2" spans="1:37" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
     <row r="13" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
